--- a/filedownload/template_master.xlsx
+++ b/filedownload/template_master.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ProDigi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prodigi\filedownload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD509E8-CE56-4375-8B7F-9B37A796D45F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{55D1F2E9-76A7-49C2-BA95-7238AEF06640}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="216">
   <si>
     <t>CONTENT_TITLE</t>
   </si>
@@ -661,12 +660,27 @@
   </si>
   <si>
     <t>Untuk Setia</t>
+  </si>
+  <si>
+    <t>Pencipta</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Marketing Chanel</t>
+  </si>
+  <si>
+    <t>Artist</t>
+  </si>
+  <si>
+    <t>nama marketing channel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1045,23 +1059,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904A5B2A-ADB1-4C20-9BB6-DF874E32E680}">
-  <dimension ref="A1:G668"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L668"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G479" sqref="G479"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,8 +1101,23 @@
       <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
@@ -1095,7 +1128,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
@@ -1106,7 +1139,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
@@ -1117,7 +1150,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
@@ -1128,7 +1161,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -1139,7 +1172,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
@@ -1150,7 +1183,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
@@ -1161,7 +1194,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -1172,7 +1205,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1183,7 +1216,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -1194,7 +1227,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -1205,7 +1238,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1216,7 +1249,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -1227,7 +1260,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -1238,7 +1271,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>50</v>
       </c>
